--- a/Code/Results/Cases/Case_4_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_238/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006584046742083</v>
+        <v>1.076880890253462</v>
       </c>
       <c r="D2">
-        <v>1.02486574672854</v>
+        <v>1.075313900309295</v>
       </c>
       <c r="E2">
-        <v>1.014715789426309</v>
+        <v>1.0806092323852</v>
       </c>
       <c r="F2">
-        <v>1.028915217357677</v>
+        <v>1.084210506821714</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043771788302548</v>
+        <v>1.049269138000093</v>
       </c>
       <c r="J2">
-        <v>1.028569597764842</v>
+        <v>1.081778133705163</v>
       </c>
       <c r="K2">
-        <v>1.035989199500411</v>
+        <v>1.078000798051144</v>
       </c>
       <c r="L2">
-        <v>1.025973847252183</v>
+        <v>1.083282219649911</v>
       </c>
       <c r="M2">
-        <v>1.039985895328612</v>
+        <v>1.086874117584125</v>
       </c>
       <c r="N2">
-        <v>1.03003028457225</v>
+        <v>1.083314382736711</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018991646495393</v>
+        <v>1.07907451745983</v>
       </c>
       <c r="D3">
-        <v>1.034760397577014</v>
+        <v>1.077050357833876</v>
       </c>
       <c r="E3">
-        <v>1.026583594309742</v>
+        <v>1.082757062749616</v>
       </c>
       <c r="F3">
-        <v>1.03943138145382</v>
+        <v>1.08608631845749</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047953930003286</v>
+        <v>1.049872422094993</v>
       </c>
       <c r="J3">
-        <v>1.038977636844125</v>
+        <v>1.083626000076901</v>
       </c>
       <c r="K3">
-        <v>1.044967022390863</v>
+        <v>1.07955229591135</v>
       </c>
       <c r="L3">
-        <v>1.036887266930294</v>
+        <v>1.08524511918176</v>
       </c>
       <c r="M3">
-        <v>1.049583415198996</v>
+        <v>1.088566348822414</v>
       </c>
       <c r="N3">
-        <v>1.040453104260845</v>
+        <v>1.08516487329065</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026650282389887</v>
+        <v>1.080488214116116</v>
       </c>
       <c r="D4">
-        <v>1.040869596145795</v>
+        <v>1.078168599514492</v>
       </c>
       <c r="E4">
-        <v>1.03391581504661</v>
+        <v>1.084141497781082</v>
       </c>
       <c r="F4">
-        <v>1.045928865991031</v>
+        <v>1.087294869564981</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050518043579362</v>
+        <v>1.050258725365911</v>
       </c>
       <c r="J4">
-        <v>1.045395994544615</v>
+        <v>1.084815810605727</v>
       </c>
       <c r="K4">
-        <v>1.050498568035811</v>
+        <v>1.080550401978188</v>
       </c>
       <c r="L4">
-        <v>1.043621438124112</v>
+        <v>1.086509518702397</v>
       </c>
       <c r="M4">
-        <v>1.055502855380704</v>
+        <v>1.08965567998693</v>
       </c>
       <c r="N4">
-        <v>1.046880576765464</v>
+        <v>1.0863563734869</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029789257531495</v>
+        <v>1.081081193339376</v>
       </c>
       <c r="D5">
-        <v>1.043373666149278</v>
+        <v>1.078637449232347</v>
       </c>
       <c r="E5">
-        <v>1.036922486710359</v>
+        <v>1.084722262813006</v>
       </c>
       <c r="F5">
-        <v>1.048593176140258</v>
+        <v>1.087801719831912</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051564660431858</v>
+        <v>1.050420165055844</v>
       </c>
       <c r="J5">
-        <v>1.048025050107666</v>
+        <v>1.085314626112974</v>
       </c>
       <c r="K5">
-        <v>1.052763141948692</v>
+        <v>1.080968636609881</v>
       </c>
       <c r="L5">
-        <v>1.046380856765633</v>
+        <v>1.087039729724541</v>
       </c>
       <c r="M5">
-        <v>1.057927669329248</v>
+        <v>1.090112305549905</v>
       </c>
       <c r="N5">
-        <v>1.049513365888973</v>
+        <v>1.086855897369382</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030311779391383</v>
+        <v>1.081180679578642</v>
       </c>
       <c r="D6">
-        <v>1.043790501950234</v>
+        <v>1.078716098043178</v>
       </c>
       <c r="E6">
-        <v>1.037423068333215</v>
+        <v>1.08481970331277</v>
       </c>
       <c r="F6">
-        <v>1.049036749966824</v>
+        <v>1.087886751164579</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051738624914826</v>
+        <v>1.050447215361052</v>
       </c>
       <c r="J6">
-        <v>1.048462593138227</v>
+        <v>1.085398299251852</v>
       </c>
       <c r="K6">
-        <v>1.053139951487731</v>
+        <v>1.081038780432517</v>
       </c>
       <c r="L6">
-        <v>1.046840154618824</v>
+        <v>1.087128676590253</v>
       </c>
       <c r="M6">
-        <v>1.058331225913569</v>
+        <v>1.090188897756504</v>
       </c>
       <c r="N6">
-        <v>1.049951530280824</v>
+        <v>1.086939689333714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026692533153894</v>
+        <v>1.080496142751052</v>
       </c>
       <c r="D7">
-        <v>1.04090330078107</v>
+        <v>1.078174869221447</v>
       </c>
       <c r="E7">
-        <v>1.033956279294274</v>
+        <v>1.084149262868198</v>
       </c>
       <c r="F7">
-        <v>1.045964723135057</v>
+        <v>1.087301646899784</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0505321484149</v>
+        <v>1.050260886297961</v>
       </c>
       <c r="J7">
-        <v>1.045431388189856</v>
+        <v>1.084822481191752</v>
       </c>
       <c r="K7">
-        <v>1.050529059821789</v>
+        <v>1.080555995798161</v>
       </c>
       <c r="L7">
-        <v>1.043658582800641</v>
+        <v>1.086516608644672</v>
       </c>
       <c r="M7">
-        <v>1.055535499055645</v>
+        <v>1.08966178662986</v>
       </c>
       <c r="N7">
-        <v>1.046916020673742</v>
+        <v>1.086363053545922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010858945826898</v>
+        <v>1.077623442102479</v>
       </c>
       <c r="D8">
-        <v>1.028274305157959</v>
+        <v>1.07590186955564</v>
       </c>
       <c r="E8">
-        <v>1.018803165008332</v>
+        <v>1.081336228947293</v>
       </c>
       <c r="F8">
-        <v>1.03253690386072</v>
+        <v>1.084845543733783</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045216295321012</v>
+        <v>1.049473867916275</v>
       </c>
       <c r="J8">
-        <v>1.032156774864325</v>
+        <v>1.082403863462941</v>
       </c>
       <c r="K8">
-        <v>1.039084433169578</v>
+        <v>1.078526352598675</v>
       </c>
       <c r="L8">
-        <v>1.029734319505654</v>
+        <v>1.083946794087095</v>
       </c>
       <c r="M8">
-        <v>1.043293465717321</v>
+        <v>1.087447201053424</v>
       </c>
       <c r="N8">
-        <v>1.033622555874669</v>
+        <v>1.083941001102517</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9796971601409323</v>
+        <v>1.07251605898522</v>
       </c>
       <c r="D9">
-        <v>1.003448785497338</v>
+        <v>1.071854364604896</v>
       </c>
       <c r="E9">
-        <v>0.9890463542090729</v>
+        <v>1.076336910430344</v>
       </c>
       <c r="F9">
-        <v>1.006179755612422</v>
+        <v>1.080476379344777</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034616848208078</v>
+        <v>1.048055468413147</v>
       </c>
       <c r="J9">
-        <v>1.005987813418324</v>
+        <v>1.078095652235443</v>
       </c>
       <c r="K9">
-        <v>1.016486155285259</v>
+        <v>1.074904252025384</v>
       </c>
       <c r="L9">
-        <v>1.002319682313907</v>
+        <v>1.079373284950467</v>
       </c>
       <c r="M9">
-        <v>1.019173359999347</v>
+        <v>1.083500383649375</v>
       </c>
       <c r="N9">
-        <v>1.007416431501793</v>
+        <v>1.079626671720917</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.955966713094306</v>
+        <v>1.069078613903569</v>
       </c>
       <c r="D10">
-        <v>0.98459147181095</v>
+        <v>1.069126083403361</v>
       </c>
       <c r="E10">
-        <v>0.9664471240255522</v>
+        <v>1.072973580286818</v>
       </c>
       <c r="F10">
-        <v>0.9861864980132987</v>
+        <v>1.07753423486328</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026465549464664</v>
+        <v>1.047087986434537</v>
       </c>
       <c r="J10">
-        <v>0.9860432656423623</v>
+        <v>1.075190628389317</v>
       </c>
       <c r="K10">
-        <v>0.9992446189060884</v>
+        <v>1.072457356700653</v>
       </c>
       <c r="L10">
-        <v>0.9814498158422512</v>
+        <v>1.076292077384321</v>
       </c>
       <c r="M10">
-        <v>1.000809720345385</v>
+        <v>1.080837717193419</v>
       </c>
       <c r="N10">
-        <v>0.987443560180318</v>
+        <v>1.076717522407719</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9447493109325095</v>
+        <v>1.067581986235106</v>
       </c>
       <c r="D11">
-        <v>0.9756975823772394</v>
+        <v>1.067937249623815</v>
       </c>
       <c r="E11">
-        <v>0.9557839325439446</v>
+        <v>1.071509560367606</v>
       </c>
       <c r="F11">
-        <v>0.9767636227439653</v>
+        <v>1.076252912258799</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022598314856204</v>
+        <v>1.046663718209462</v>
       </c>
       <c r="J11">
-        <v>0.976615984473295</v>
+        <v>1.073924526639146</v>
       </c>
       <c r="K11">
-        <v>0.9910928353058932</v>
+        <v>1.07138985886229</v>
       </c>
       <c r="L11">
-        <v>0.9715908161037106</v>
+        <v>1.074949830232743</v>
       </c>
       <c r="M11">
-        <v>0.9921374624793696</v>
+        <v>1.07967693698378</v>
       </c>
       <c r="N11">
-        <v>0.9780028911906661</v>
+        <v>1.075449622647839</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9404128475281546</v>
+        <v>1.067024801334658</v>
       </c>
       <c r="D12">
-        <v>0.9722633253958151</v>
+        <v>1.067494510646107</v>
       </c>
       <c r="E12">
-        <v>0.9516651967810161</v>
+        <v>1.070964566939652</v>
       </c>
       <c r="F12">
-        <v>0.9731261472478206</v>
+        <v>1.075775834389993</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021101742737298</v>
+        <v>1.046505310626181</v>
       </c>
       <c r="J12">
-        <v>0.9729721423662721</v>
+        <v>1.07345297271668</v>
       </c>
       <c r="K12">
-        <v>0.9879419331310713</v>
+        <v>1.070992115039628</v>
       </c>
       <c r="L12">
-        <v>0.9677809430456331</v>
+        <v>1.074450012533083</v>
       </c>
       <c r="M12">
-        <v>0.988786976788701</v>
+        <v>1.079244564544883</v>
       </c>
       <c r="N12">
-        <v>0.9743538744098967</v>
+        <v>1.074977399064715</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9413512689122641</v>
+        <v>1.067144377542221</v>
       </c>
       <c r="D13">
-        <v>0.9730063099108419</v>
+        <v>1.067589532345102</v>
       </c>
       <c r="E13">
-        <v>0.9525563344672069</v>
+        <v>1.071081524403947</v>
       </c>
       <c r="F13">
-        <v>0.9739130497236426</v>
+        <v>1.075878221221361</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02142566437744</v>
+        <v>1.046539326701543</v>
       </c>
       <c r="J13">
-        <v>0.9737606424854419</v>
+        <v>1.073554180541509</v>
       </c>
       <c r="K13">
-        <v>0.9886237628834199</v>
+        <v>1.071077488466563</v>
       </c>
       <c r="L13">
-        <v>0.9686053336170805</v>
+        <v>1.074557282152927</v>
       </c>
       <c r="M13">
-        <v>0.9895119214824771</v>
+        <v>1.079337365021172</v>
       </c>
       <c r="N13">
-        <v>0.9751434942896779</v>
+        <v>1.075078750616263</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9443945167239436</v>
+        <v>1.067535955314745</v>
       </c>
       <c r="D14">
-        <v>0.9754165170314687</v>
+        <v>1.067900676386953</v>
       </c>
       <c r="E14">
-        <v>0.9554468783376625</v>
+        <v>1.071464535564313</v>
       </c>
       <c r="F14">
-        <v>0.9764659044970708</v>
+        <v>1.076213500251006</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022475898324023</v>
+        <v>1.046650640899946</v>
       </c>
       <c r="J14">
-        <v>0.9763178427904202</v>
+        <v>1.073885573899186</v>
       </c>
       <c r="K14">
-        <v>0.9908350259399001</v>
+        <v>1.071357006447669</v>
       </c>
       <c r="L14">
-        <v>0.9712790728870647</v>
+        <v>1.074908540800695</v>
       </c>
       <c r="M14">
-        <v>0.9918632903611339</v>
+        <v>1.079641221745959</v>
       </c>
       <c r="N14">
-        <v>0.9777043261124043</v>
+        <v>1.07541061459052</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9462460656535947</v>
+        <v>1.067777049706251</v>
       </c>
       <c r="D15">
-        <v>0.9768834668721329</v>
+        <v>1.06809222875936</v>
       </c>
       <c r="E15">
-        <v>0.9572059920427218</v>
+        <v>1.071700362380317</v>
       </c>
       <c r="F15">
-        <v>0.9780198121296325</v>
+        <v>1.07641992499689</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023114688823125</v>
+        <v>1.046719116804069</v>
       </c>
       <c r="J15">
-        <v>0.9778737688246181</v>
+        <v>1.074089587310153</v>
       </c>
       <c r="K15">
-        <v>0.9921804668169301</v>
+        <v>1.07152906314787</v>
       </c>
       <c r="L15">
-        <v>0.9729060155255974</v>
+        <v>1.075124796478973</v>
       </c>
       <c r="M15">
-        <v>0.9932941890361442</v>
+        <v>1.079828277031565</v>
       </c>
       <c r="N15">
-        <v>0.9792624617400379</v>
+        <v>1.075614917723932</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9566890997336206</v>
+        <v>1.069177764164984</v>
       </c>
       <c r="D16">
-        <v>0.9851647073073733</v>
+        <v>1.069204822376452</v>
       </c>
       <c r="E16">
-        <v>0.9671342579934457</v>
+        <v>1.073070577514786</v>
       </c>
       <c r="F16">
-        <v>0.9867939676008893</v>
+        <v>1.077619114296635</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026714350894319</v>
+        <v>1.04711603007249</v>
       </c>
       <c r="J16">
-        <v>0.9866504204128785</v>
+        <v>1.075274479559898</v>
       </c>
       <c r="K16">
-        <v>0.9997696025399974</v>
+        <v>1.072528032482487</v>
       </c>
       <c r="L16">
-        <v>0.9820848889284709</v>
+        <v>1.076380984965014</v>
       </c>
       <c r="M16">
-        <v>1.001368433682494</v>
+        <v>1.080914586798667</v>
       </c>
       <c r="N16">
-        <v>0.9880515771802497</v>
+        <v>1.076801492656579</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9629700354245052</v>
+        <v>1.070054174208224</v>
       </c>
       <c r="D17">
-        <v>0.990151105023705</v>
+        <v>1.06990070137929</v>
       </c>
       <c r="E17">
-        <v>0.9731108766384328</v>
+        <v>1.07392799558958</v>
       </c>
       <c r="F17">
-        <v>0.9920789057769382</v>
+        <v>1.0783693421426</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02887610165715</v>
+        <v>1.047363564015588</v>
       </c>
       <c r="J17">
-        <v>0.9919295520131773</v>
+        <v>1.0760155098099</v>
       </c>
       <c r="K17">
-        <v>1.004334053244166</v>
+        <v>1.073152503629083</v>
       </c>
       <c r="L17">
-        <v>0.9876073884838468</v>
+        <v>1.077166774766748</v>
       </c>
       <c r="M17">
-        <v>1.006227260693802</v>
+        <v>1.08159388276783</v>
       </c>
       <c r="N17">
-        <v>0.9933382057529461</v>
+        <v>1.077543575254533</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9665449901388991</v>
+        <v>1.070564581762858</v>
       </c>
       <c r="D18">
-        <v>0.9929909955949979</v>
+        <v>1.070305877193239</v>
       </c>
       <c r="E18">
-        <v>0.9765143623227815</v>
+        <v>1.074427375047307</v>
       </c>
       <c r="F18">
-        <v>0.9950894415224107</v>
+        <v>1.078806229970521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030105186659964</v>
+        <v>1.04750743181839</v>
       </c>
       <c r="J18">
-        <v>0.9949343144739894</v>
+        <v>1.076446950683128</v>
       </c>
       <c r="K18">
-        <v>1.006931820388973</v>
+        <v>1.073515979517246</v>
       </c>
       <c r="L18">
-        <v>0.9907511885914309</v>
+        <v>1.077624337060316</v>
       </c>
       <c r="M18">
-        <v>1.008993479392015</v>
+        <v>1.081989351433284</v>
       </c>
       <c r="N18">
-        <v>0.9963472353211035</v>
+        <v>1.077975628823289</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9677496580152458</v>
+        <v>1.070738485162502</v>
       </c>
       <c r="D19">
-        <v>0.9939482393996621</v>
+        <v>1.070443910709187</v>
       </c>
       <c r="E19">
-        <v>0.9776615311995754</v>
+        <v>1.074597526501691</v>
       </c>
       <c r="F19">
-        <v>0.9961043090761421</v>
+        <v>1.078955078425306</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030519117158911</v>
+        <v>1.047556400129556</v>
       </c>
       <c r="J19">
-        <v>0.9959468313597419</v>
+        <v>1.076593927982425</v>
       </c>
       <c r="K19">
-        <v>1.007807148954558</v>
+        <v>1.073639786088327</v>
       </c>
       <c r="L19">
-        <v>0.9918106452714687</v>
+        <v>1.077780223497387</v>
       </c>
       <c r="M19">
-        <v>1.009925721225257</v>
+        <v>1.082124069203337</v>
       </c>
       <c r="N19">
-        <v>0.9973611900969708</v>
+        <v>1.07812281484721</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9623054940306842</v>
+        <v>1.069960225457859</v>
       </c>
       <c r="D20">
-        <v>0.9896233403601182</v>
+        <v>1.069826114701918</v>
       </c>
       <c r="E20">
-        <v>0.9724783477729638</v>
+        <v>1.073836079352883</v>
       </c>
       <c r="F20">
-        <v>0.9915194786582556</v>
+        <v>1.078288923197384</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028647517602532</v>
+        <v>1.047337059281886</v>
       </c>
       <c r="J20">
-        <v>0.9913710002741947</v>
+        <v>1.075936086189017</v>
       </c>
       <c r="K20">
-        <v>1.003851138294896</v>
+        <v>1.073085583388541</v>
       </c>
       <c r="L20">
-        <v>0.9870230334909623</v>
+        <v>1.077082547439506</v>
       </c>
       <c r="M20">
-        <v>1.005713105137978</v>
+        <v>1.081521078866327</v>
       </c>
       <c r="N20">
-        <v>0.9927788608064271</v>
+        <v>1.077464038842999</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9435033150140389</v>
+        <v>1.067420680824835</v>
       </c>
       <c r="D21">
-        <v>0.9747105809463865</v>
+        <v>1.067809084305809</v>
       </c>
       <c r="E21">
-        <v>0.9546002952030044</v>
+        <v>1.071351781516821</v>
       </c>
       <c r="F21">
-        <v>0.9757181590203914</v>
+        <v>1.076114800601782</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022168379427802</v>
+        <v>1.046617884258551</v>
       </c>
       <c r="J21">
-        <v>0.9755689570495351</v>
+        <v>1.073788022078897</v>
       </c>
       <c r="K21">
-        <v>0.990187448660063</v>
+        <v>1.071274729494384</v>
       </c>
       <c r="L21">
-        <v>0.9704960355364121</v>
+        <v>1.074805138607379</v>
       </c>
       <c r="M21">
-        <v>0.9911746382039489</v>
+        <v>1.079551777083481</v>
       </c>
       <c r="N21">
-        <v>0.9769543768678686</v>
+        <v>1.075312924235456</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.930677893470669</v>
+        <v>1.065816595804932</v>
       </c>
       <c r="D22">
-        <v>0.9645624985787425</v>
+        <v>1.066534209610222</v>
       </c>
       <c r="E22">
-        <v>0.9424262707899346</v>
+        <v>1.069782893372665</v>
       </c>
       <c r="F22">
-        <v>0.964971608896917</v>
+        <v>1.074741245034795</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017739937017946</v>
+        <v>1.046160985753408</v>
       </c>
       <c r="J22">
-        <v>0.9647938757334494</v>
+        <v>1.072430098940402</v>
       </c>
       <c r="K22">
-        <v>0.9808702562855104</v>
+        <v>1.070129056414498</v>
       </c>
       <c r="L22">
-        <v>0.9592315766869086</v>
+        <v>1.073366006341822</v>
       </c>
       <c r="M22">
-        <v>0.981270456428934</v>
+        <v>1.078306599948717</v>
       </c>
       <c r="N22">
-        <v>0.9661639937003954</v>
+        <v>1.073953072690349</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9375839830270101</v>
+        <v>1.066667664021695</v>
       </c>
       <c r="D23">
-        <v>0.9700242779707017</v>
+        <v>1.067210689171273</v>
       </c>
       <c r="E23">
-        <v>0.9489794305643343</v>
+        <v>1.070615258664357</v>
       </c>
       <c r="F23">
-        <v>0.9707549045372323</v>
+        <v>1.075470029329552</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020125106073223</v>
+        <v>1.046403648493787</v>
       </c>
       <c r="J23">
-        <v>0.9705953493242782</v>
+        <v>1.073150667991507</v>
       </c>
       <c r="K23">
-        <v>0.9858866931115431</v>
+        <v>1.070737083945774</v>
       </c>
       <c r="L23">
-        <v>0.9652960861791277</v>
+        <v>1.074129615496394</v>
       </c>
       <c r="M23">
-        <v>0.9866020171559085</v>
+        <v>1.078967365784332</v>
       </c>
       <c r="N23">
-        <v>0.9719737060491611</v>
+        <v>1.074674665032158</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9626060434673793</v>
+        <v>1.070002679286256</v>
       </c>
       <c r="D24">
-        <v>0.9898620249285592</v>
+        <v>1.069859819430297</v>
       </c>
       <c r="E24">
-        <v>0.9727644136371391</v>
+        <v>1.073877614622704</v>
       </c>
       <c r="F24">
-        <v>0.9917724808242608</v>
+        <v>1.078325263241723</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028750902576878</v>
+        <v>1.047349037219661</v>
       </c>
       <c r="J24">
-        <v>0.9916236142040161</v>
+        <v>1.075971976742866</v>
       </c>
       <c r="K24">
-        <v>1.004069544969791</v>
+        <v>1.073115824135345</v>
       </c>
       <c r="L24">
-        <v>0.9872873157354676</v>
+        <v>1.077120608538384</v>
       </c>
       <c r="M24">
-        <v>1.005945638075058</v>
+        <v>1.08155397814176</v>
       </c>
       <c r="N24">
-        <v>0.9930318334770043</v>
+        <v>1.077499980365552</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9882079044578816</v>
+        <v>1.073842019746309</v>
       </c>
       <c r="D25">
-        <v>1.010223302360178</v>
+        <v>1.072905902257425</v>
       </c>
       <c r="E25">
-        <v>0.9971645262526412</v>
+        <v>1.077634576580955</v>
       </c>
       <c r="F25">
-        <v>1.013367751705015</v>
+        <v>1.081610965348059</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037526086109566</v>
+        <v>1.04842596691802</v>
       </c>
       <c r="J25">
-        <v>1.013138742550591</v>
+        <v>1.079215093560477</v>
       </c>
       <c r="K25">
-        <v>1.022664960934864</v>
+        <v>1.075846209370278</v>
       </c>
       <c r="L25">
-        <v>1.009807019350982</v>
+        <v>1.080561186202308</v>
       </c>
       <c r="M25">
-        <v>1.025762035182147</v>
+        <v>1.084526157316374</v>
       </c>
       <c r="N25">
-        <v>1.014577515773651</v>
+        <v>1.080747702781035</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_238/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.076880890253462</v>
+        <v>1.00658404674208</v>
       </c>
       <c r="D2">
-        <v>1.075313900309295</v>
+        <v>1.024865746728538</v>
       </c>
       <c r="E2">
-        <v>1.0806092323852</v>
+        <v>1.014715789426306</v>
       </c>
       <c r="F2">
-        <v>1.084210506821714</v>
+        <v>1.028915217357674</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049269138000093</v>
+        <v>1.043771788302547</v>
       </c>
       <c r="J2">
-        <v>1.081778133705163</v>
+        <v>1.028569597764839</v>
       </c>
       <c r="K2">
-        <v>1.078000798051144</v>
+        <v>1.035989199500409</v>
       </c>
       <c r="L2">
-        <v>1.083282219649911</v>
+        <v>1.02597384725218</v>
       </c>
       <c r="M2">
-        <v>1.086874117584125</v>
+        <v>1.039985895328609</v>
       </c>
       <c r="N2">
-        <v>1.083314382736711</v>
+        <v>1.030030284572247</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.07907451745983</v>
+        <v>1.018991646495391</v>
       </c>
       <c r="D3">
-        <v>1.077050357833876</v>
+        <v>1.034760397577013</v>
       </c>
       <c r="E3">
-        <v>1.082757062749616</v>
+        <v>1.026583594309739</v>
       </c>
       <c r="F3">
-        <v>1.08608631845749</v>
+        <v>1.039431381453819</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049872422094993</v>
+        <v>1.047953930003285</v>
       </c>
       <c r="J3">
-        <v>1.083626000076901</v>
+        <v>1.038977636844123</v>
       </c>
       <c r="K3">
-        <v>1.07955229591135</v>
+        <v>1.044967022390862</v>
       </c>
       <c r="L3">
-        <v>1.08524511918176</v>
+        <v>1.036887266930292</v>
       </c>
       <c r="M3">
-        <v>1.088566348822414</v>
+        <v>1.049583415198995</v>
       </c>
       <c r="N3">
-        <v>1.08516487329065</v>
+        <v>1.040453104260842</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.080488214116116</v>
+        <v>1.026650282389884</v>
       </c>
       <c r="D4">
-        <v>1.078168599514492</v>
+        <v>1.040869596145792</v>
       </c>
       <c r="E4">
-        <v>1.084141497781082</v>
+        <v>1.033915815046607</v>
       </c>
       <c r="F4">
-        <v>1.087294869564981</v>
+        <v>1.045928865991029</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050258725365911</v>
+        <v>1.050518043579361</v>
       </c>
       <c r="J4">
-        <v>1.084815810605727</v>
+        <v>1.045395994544612</v>
       </c>
       <c r="K4">
-        <v>1.080550401978188</v>
+        <v>1.050498568035809</v>
       </c>
       <c r="L4">
-        <v>1.086509518702397</v>
+        <v>1.04362143812411</v>
       </c>
       <c r="M4">
-        <v>1.08965567998693</v>
+        <v>1.055502855380702</v>
       </c>
       <c r="N4">
-        <v>1.0863563734869</v>
+        <v>1.046880576765462</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.081081193339376</v>
+        <v>1.029789257531491</v>
       </c>
       <c r="D5">
-        <v>1.078637449232347</v>
+        <v>1.043373666149275</v>
       </c>
       <c r="E5">
-        <v>1.084722262813006</v>
+        <v>1.036922486710355</v>
       </c>
       <c r="F5">
-        <v>1.087801719831912</v>
+        <v>1.048593176140254</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050420165055844</v>
+        <v>1.051564660431856</v>
       </c>
       <c r="J5">
-        <v>1.085314626112974</v>
+        <v>1.048025050107662</v>
       </c>
       <c r="K5">
-        <v>1.080968636609881</v>
+        <v>1.052763141948688</v>
       </c>
       <c r="L5">
-        <v>1.087039729724541</v>
+        <v>1.046380856765629</v>
       </c>
       <c r="M5">
-        <v>1.090112305549905</v>
+        <v>1.057927669329244</v>
       </c>
       <c r="N5">
-        <v>1.086855897369382</v>
+        <v>1.049513365888968</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.081180679578642</v>
+        <v>1.030311779391384</v>
       </c>
       <c r="D6">
-        <v>1.078716098043178</v>
+        <v>1.043790501950235</v>
       </c>
       <c r="E6">
-        <v>1.08481970331277</v>
+        <v>1.037423068333216</v>
       </c>
       <c r="F6">
-        <v>1.087886751164579</v>
+        <v>1.049036749966825</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050447215361052</v>
+        <v>1.051738624914826</v>
       </c>
       <c r="J6">
-        <v>1.085398299251852</v>
+        <v>1.048462593138229</v>
       </c>
       <c r="K6">
-        <v>1.081038780432517</v>
+        <v>1.053139951487732</v>
       </c>
       <c r="L6">
-        <v>1.087128676590253</v>
+        <v>1.046840154618825</v>
       </c>
       <c r="M6">
-        <v>1.090188897756504</v>
+        <v>1.05833122591357</v>
       </c>
       <c r="N6">
-        <v>1.086939689333714</v>
+        <v>1.049951530280825</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.080496142751052</v>
+        <v>1.026692533153898</v>
       </c>
       <c r="D7">
-        <v>1.078174869221447</v>
+        <v>1.040903300781073</v>
       </c>
       <c r="E7">
-        <v>1.084149262868198</v>
+        <v>1.033956279294278</v>
       </c>
       <c r="F7">
-        <v>1.087301646899784</v>
+        <v>1.04596472313506</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050260886297961</v>
+        <v>1.050532148414901</v>
       </c>
       <c r="J7">
-        <v>1.084822481191752</v>
+        <v>1.04543138818986</v>
       </c>
       <c r="K7">
-        <v>1.080555995798161</v>
+        <v>1.050529059821792</v>
       </c>
       <c r="L7">
-        <v>1.086516608644672</v>
+        <v>1.043658582800646</v>
       </c>
       <c r="M7">
-        <v>1.08966178662986</v>
+        <v>1.055535499055648</v>
       </c>
       <c r="N7">
-        <v>1.086363053545922</v>
+        <v>1.046916020673746</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.077623442102479</v>
+        <v>1.010858945826896</v>
       </c>
       <c r="D8">
-        <v>1.07590186955564</v>
+        <v>1.028274305157956</v>
       </c>
       <c r="E8">
-        <v>1.081336228947293</v>
+        <v>1.018803165008329</v>
       </c>
       <c r="F8">
-        <v>1.084845543733783</v>
+        <v>1.032536903860717</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049473867916275</v>
+        <v>1.045216295321011</v>
       </c>
       <c r="J8">
-        <v>1.082403863462941</v>
+        <v>1.032156774864323</v>
       </c>
       <c r="K8">
-        <v>1.078526352598675</v>
+        <v>1.039084433169575</v>
       </c>
       <c r="L8">
-        <v>1.083946794087095</v>
+        <v>1.029734319505652</v>
       </c>
       <c r="M8">
-        <v>1.087447201053424</v>
+        <v>1.043293465717319</v>
       </c>
       <c r="N8">
-        <v>1.083941001102517</v>
+        <v>1.033622555874667</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.07251605898522</v>
+        <v>0.9796971601409304</v>
       </c>
       <c r="D9">
-        <v>1.071854364604896</v>
+        <v>1.003448785497336</v>
       </c>
       <c r="E9">
-        <v>1.076336910430344</v>
+        <v>0.9890463542090705</v>
       </c>
       <c r="F9">
-        <v>1.080476379344777</v>
+        <v>1.006179755612421</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048055468413147</v>
+        <v>1.034616848208077</v>
       </c>
       <c r="J9">
-        <v>1.078095652235443</v>
+        <v>1.005987813418322</v>
       </c>
       <c r="K9">
-        <v>1.074904252025384</v>
+        <v>1.016486155285257</v>
       </c>
       <c r="L9">
-        <v>1.079373284950467</v>
+        <v>1.002319682313904</v>
       </c>
       <c r="M9">
-        <v>1.083500383649375</v>
+        <v>1.019173359999345</v>
       </c>
       <c r="N9">
-        <v>1.079626671720917</v>
+        <v>1.007416431501791</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.069078613903569</v>
+        <v>0.9559667130943076</v>
       </c>
       <c r="D10">
-        <v>1.069126083403361</v>
+        <v>0.9845914718109515</v>
       </c>
       <c r="E10">
-        <v>1.072973580286818</v>
+        <v>0.9664471240255544</v>
       </c>
       <c r="F10">
-        <v>1.07753423486328</v>
+        <v>0.9861864980133006</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047087986434537</v>
+        <v>1.026465549464665</v>
       </c>
       <c r="J10">
-        <v>1.075190628389317</v>
+        <v>0.986043265642364</v>
       </c>
       <c r="K10">
-        <v>1.072457356700653</v>
+        <v>0.9992446189060898</v>
       </c>
       <c r="L10">
-        <v>1.076292077384321</v>
+        <v>0.9814498158422532</v>
       </c>
       <c r="M10">
-        <v>1.080837717193419</v>
+        <v>1.000809720345387</v>
       </c>
       <c r="N10">
-        <v>1.076717522407719</v>
+        <v>0.9874435601803193</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067581986235106</v>
+        <v>0.9447493109325135</v>
       </c>
       <c r="D11">
-        <v>1.067937249623815</v>
+        <v>0.9756975823772426</v>
       </c>
       <c r="E11">
-        <v>1.071509560367606</v>
+        <v>0.9557839325439488</v>
       </c>
       <c r="F11">
-        <v>1.076252912258799</v>
+        <v>0.9767636227439691</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046663718209462</v>
+        <v>1.022598314856206</v>
       </c>
       <c r="J11">
-        <v>1.073924526639146</v>
+        <v>0.9766159844732987</v>
       </c>
       <c r="K11">
-        <v>1.07138985886229</v>
+        <v>0.9910928353058966</v>
       </c>
       <c r="L11">
-        <v>1.074949830232743</v>
+        <v>0.9715908161037144</v>
       </c>
       <c r="M11">
-        <v>1.07967693698378</v>
+        <v>0.9921374624793733</v>
       </c>
       <c r="N11">
-        <v>1.075449622647839</v>
+        <v>0.9780028911906695</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.067024801334658</v>
+        <v>0.940412847528156</v>
       </c>
       <c r="D12">
-        <v>1.067494510646107</v>
+        <v>0.9722633253958163</v>
       </c>
       <c r="E12">
-        <v>1.070964566939652</v>
+        <v>0.951665196781018</v>
       </c>
       <c r="F12">
-        <v>1.075775834389993</v>
+        <v>0.9731261472478215</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046505310626181</v>
+        <v>1.021101742737298</v>
       </c>
       <c r="J12">
-        <v>1.07345297271668</v>
+        <v>0.9729721423662732</v>
       </c>
       <c r="K12">
-        <v>1.070992115039628</v>
+        <v>0.9879419331310724</v>
       </c>
       <c r="L12">
-        <v>1.074450012533083</v>
+        <v>0.9677809430456348</v>
       </c>
       <c r="M12">
-        <v>1.079244564544883</v>
+        <v>0.988786976788702</v>
       </c>
       <c r="N12">
-        <v>1.074977399064715</v>
+        <v>0.974353874409898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.067144377542221</v>
+        <v>0.9413512689122632</v>
       </c>
       <c r="D13">
-        <v>1.067589532345102</v>
+        <v>0.973006309910841</v>
       </c>
       <c r="E13">
-        <v>1.071081524403947</v>
+        <v>0.9525563344672059</v>
       </c>
       <c r="F13">
-        <v>1.075878221221361</v>
+        <v>0.9739130497236411</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046539326701543</v>
+        <v>1.02142566437744</v>
       </c>
       <c r="J13">
-        <v>1.073554180541509</v>
+        <v>0.9737606424854411</v>
       </c>
       <c r="K13">
-        <v>1.071077488466563</v>
+        <v>0.9886237628834194</v>
       </c>
       <c r="L13">
-        <v>1.074557282152927</v>
+        <v>0.9686053336170793</v>
       </c>
       <c r="M13">
-        <v>1.079337365021172</v>
+        <v>0.9895119214824758</v>
       </c>
       <c r="N13">
-        <v>1.075078750616263</v>
+        <v>0.9751434942896769</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.067535955314745</v>
+        <v>0.9443945167239431</v>
       </c>
       <c r="D14">
-        <v>1.067900676386953</v>
+        <v>0.9754165170314683</v>
       </c>
       <c r="E14">
-        <v>1.071464535564313</v>
+        <v>0.9554468783376622</v>
       </c>
       <c r="F14">
-        <v>1.076213500251006</v>
+        <v>0.9764659044970707</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046650640899946</v>
+        <v>1.022475898324023</v>
       </c>
       <c r="J14">
-        <v>1.073885573899186</v>
+        <v>0.9763178427904198</v>
       </c>
       <c r="K14">
-        <v>1.071357006447669</v>
+        <v>0.9908350259398998</v>
       </c>
       <c r="L14">
-        <v>1.074908540800695</v>
+        <v>0.9712790728870644</v>
       </c>
       <c r="M14">
-        <v>1.079641221745959</v>
+        <v>0.9918632903611337</v>
       </c>
       <c r="N14">
-        <v>1.07541061459052</v>
+        <v>0.977704326112404</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.067777049706251</v>
+        <v>0.9462460656535885</v>
       </c>
       <c r="D15">
-        <v>1.06809222875936</v>
+        <v>0.976883466872128</v>
       </c>
       <c r="E15">
-        <v>1.071700362380317</v>
+        <v>0.9572059920427156</v>
       </c>
       <c r="F15">
-        <v>1.07641992499689</v>
+        <v>0.9780198121296272</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046719116804069</v>
+        <v>1.023114688823123</v>
       </c>
       <c r="J15">
-        <v>1.074089587310153</v>
+        <v>0.977873768824612</v>
       </c>
       <c r="K15">
-        <v>1.07152906314787</v>
+        <v>0.9921804668169251</v>
       </c>
       <c r="L15">
-        <v>1.075124796478973</v>
+        <v>0.9729060155255913</v>
       </c>
       <c r="M15">
-        <v>1.079828277031565</v>
+        <v>0.993294189036139</v>
       </c>
       <c r="N15">
-        <v>1.075614917723932</v>
+        <v>0.9792624617400322</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.069177764164984</v>
+        <v>0.9566890997336227</v>
       </c>
       <c r="D16">
-        <v>1.069204822376452</v>
+        <v>0.9851647073073753</v>
       </c>
       <c r="E16">
-        <v>1.073070577514786</v>
+        <v>0.9671342579934473</v>
       </c>
       <c r="F16">
-        <v>1.077619114296635</v>
+        <v>0.9867939676008913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04711603007249</v>
+        <v>1.02671435089432</v>
       </c>
       <c r="J16">
-        <v>1.075274479559898</v>
+        <v>0.9866504204128804</v>
       </c>
       <c r="K16">
-        <v>1.072528032482487</v>
+        <v>0.9997696025399991</v>
       </c>
       <c r="L16">
-        <v>1.076380984965014</v>
+        <v>0.9820848889284725</v>
       </c>
       <c r="M16">
-        <v>1.080914586798667</v>
+        <v>1.001368433682495</v>
       </c>
       <c r="N16">
-        <v>1.076801492656579</v>
+        <v>0.9880515771802519</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.070054174208224</v>
+        <v>0.9629700354245097</v>
       </c>
       <c r="D17">
-        <v>1.06990070137929</v>
+        <v>0.9901511050237087</v>
       </c>
       <c r="E17">
-        <v>1.07392799558958</v>
+        <v>0.9731108766384376</v>
       </c>
       <c r="F17">
-        <v>1.0783693421426</v>
+        <v>0.9920789057769418</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047363564015588</v>
+        <v>1.028876101657151</v>
       </c>
       <c r="J17">
-        <v>1.0760155098099</v>
+        <v>0.9919295520131818</v>
       </c>
       <c r="K17">
-        <v>1.073152503629083</v>
+        <v>1.00433405324417</v>
       </c>
       <c r="L17">
-        <v>1.077166774766748</v>
+        <v>0.9876073884838517</v>
       </c>
       <c r="M17">
-        <v>1.08159388276783</v>
+        <v>1.006227260693806</v>
       </c>
       <c r="N17">
-        <v>1.077543575254533</v>
+        <v>0.9933382057529504</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.070564581762858</v>
+        <v>0.9665449901388991</v>
       </c>
       <c r="D18">
-        <v>1.070305877193239</v>
+        <v>0.9929909955949977</v>
       </c>
       <c r="E18">
-        <v>1.074427375047307</v>
+        <v>0.9765143623227814</v>
       </c>
       <c r="F18">
-        <v>1.078806229970521</v>
+        <v>0.9950894415224102</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04750743181839</v>
+        <v>1.030105186659964</v>
       </c>
       <c r="J18">
-        <v>1.076446950683128</v>
+        <v>0.9949343144739891</v>
       </c>
       <c r="K18">
-        <v>1.073515979517246</v>
+        <v>1.006931820388972</v>
       </c>
       <c r="L18">
-        <v>1.077624337060316</v>
+        <v>0.9907511885914309</v>
       </c>
       <c r="M18">
-        <v>1.081989351433284</v>
+        <v>1.008993479392015</v>
       </c>
       <c r="N18">
-        <v>1.077975628823289</v>
+        <v>0.9963472353211034</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.070738485162502</v>
+        <v>0.9677496580152488</v>
       </c>
       <c r="D19">
-        <v>1.070443910709187</v>
+        <v>0.9939482393996649</v>
       </c>
       <c r="E19">
-        <v>1.074597526501691</v>
+        <v>0.9776615311995783</v>
       </c>
       <c r="F19">
-        <v>1.078955078425306</v>
+        <v>0.9961043090761449</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047556400129556</v>
+        <v>1.030519117158913</v>
       </c>
       <c r="J19">
-        <v>1.076593927982425</v>
+        <v>0.9959468313597449</v>
       </c>
       <c r="K19">
-        <v>1.073639786088327</v>
+        <v>1.007807148954561</v>
       </c>
       <c r="L19">
-        <v>1.077780223497387</v>
+        <v>0.9918106452714716</v>
       </c>
       <c r="M19">
-        <v>1.082124069203337</v>
+        <v>1.009925721225259</v>
       </c>
       <c r="N19">
-        <v>1.07812281484721</v>
+        <v>0.9973611900969742</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.069960225457859</v>
+        <v>0.9623054940306831</v>
       </c>
       <c r="D20">
-        <v>1.069826114701918</v>
+        <v>0.9896233403601171</v>
       </c>
       <c r="E20">
-        <v>1.073836079352883</v>
+        <v>0.9724783477729622</v>
       </c>
       <c r="F20">
-        <v>1.078288923197384</v>
+        <v>0.9915194786582548</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047337059281886</v>
+        <v>1.028647517602532</v>
       </c>
       <c r="J20">
-        <v>1.075936086189017</v>
+        <v>0.9913710002741934</v>
       </c>
       <c r="K20">
-        <v>1.073085583388541</v>
+        <v>1.003851138294895</v>
       </c>
       <c r="L20">
-        <v>1.077082547439506</v>
+        <v>0.9870230334909609</v>
       </c>
       <c r="M20">
-        <v>1.081521078866327</v>
+        <v>1.005713105137978</v>
       </c>
       <c r="N20">
-        <v>1.077464038842999</v>
+        <v>0.9927788608064257</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.067420680824835</v>
+        <v>0.9435033150140382</v>
       </c>
       <c r="D21">
-        <v>1.067809084305809</v>
+        <v>0.974710580946386</v>
       </c>
       <c r="E21">
-        <v>1.071351781516821</v>
+        <v>0.9546002952030037</v>
       </c>
       <c r="F21">
-        <v>1.076114800601782</v>
+        <v>0.9757181590203907</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046617884258551</v>
+        <v>1.022168379427802</v>
       </c>
       <c r="J21">
-        <v>1.073788022078897</v>
+        <v>0.9755689570495344</v>
       </c>
       <c r="K21">
-        <v>1.071274729494384</v>
+        <v>0.9901874486600626</v>
       </c>
       <c r="L21">
-        <v>1.074805138607379</v>
+        <v>0.9704960355364114</v>
       </c>
       <c r="M21">
-        <v>1.079551777083481</v>
+        <v>0.9911746382039482</v>
       </c>
       <c r="N21">
-        <v>1.075312924235456</v>
+        <v>0.9769543768678681</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065816595804932</v>
+        <v>0.9306778934706669</v>
       </c>
       <c r="D22">
-        <v>1.066534209610222</v>
+        <v>0.9645624985787408</v>
       </c>
       <c r="E22">
-        <v>1.069782893372665</v>
+        <v>0.9424262707899327</v>
       </c>
       <c r="F22">
-        <v>1.074741245034795</v>
+        <v>0.9649716088969155</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046160985753408</v>
+        <v>1.017739937017945</v>
       </c>
       <c r="J22">
-        <v>1.072430098940402</v>
+        <v>0.9647938757334474</v>
       </c>
       <c r="K22">
-        <v>1.070129056414498</v>
+        <v>0.9808702562855088</v>
       </c>
       <c r="L22">
-        <v>1.073366006341822</v>
+        <v>0.9592315766869064</v>
       </c>
       <c r="M22">
-        <v>1.078306599948717</v>
+        <v>0.9812704564289322</v>
       </c>
       <c r="N22">
-        <v>1.073953072690349</v>
+        <v>0.9661639937003932</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.066667664021695</v>
+        <v>0.9375839830270143</v>
       </c>
       <c r="D23">
-        <v>1.067210689171273</v>
+        <v>0.9700242779707053</v>
       </c>
       <c r="E23">
-        <v>1.070615258664357</v>
+        <v>0.9489794305643385</v>
       </c>
       <c r="F23">
-        <v>1.075470029329552</v>
+        <v>0.9707549045372361</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046403648493787</v>
+        <v>1.020125106073224</v>
       </c>
       <c r="J23">
-        <v>1.073150667991507</v>
+        <v>0.9705953493242822</v>
       </c>
       <c r="K23">
-        <v>1.070737083945774</v>
+        <v>0.9858866931115468</v>
       </c>
       <c r="L23">
-        <v>1.074129615496394</v>
+        <v>0.9652960861791318</v>
       </c>
       <c r="M23">
-        <v>1.078967365784332</v>
+        <v>0.986602017155912</v>
       </c>
       <c r="N23">
-        <v>1.074674665032158</v>
+        <v>0.9719737060491656</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.070002679286256</v>
+        <v>0.9626060434673727</v>
       </c>
       <c r="D24">
-        <v>1.069859819430297</v>
+        <v>0.9898620249285539</v>
       </c>
       <c r="E24">
-        <v>1.073877614622704</v>
+        <v>0.9727644136371325</v>
       </c>
       <c r="F24">
-        <v>1.078325263241723</v>
+        <v>0.9917724808242552</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047349037219661</v>
+        <v>1.028750902576875</v>
       </c>
       <c r="J24">
-        <v>1.075971976742866</v>
+        <v>0.99162361420401</v>
       </c>
       <c r="K24">
-        <v>1.073115824135345</v>
+        <v>1.004069544969785</v>
       </c>
       <c r="L24">
-        <v>1.077120608538384</v>
+        <v>0.9872873157354614</v>
       </c>
       <c r="M24">
-        <v>1.08155397814176</v>
+        <v>1.005945638075052</v>
       </c>
       <c r="N24">
-        <v>1.077499980365552</v>
+        <v>0.993031833476998</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.073842019746309</v>
+        <v>0.9882079044578757</v>
       </c>
       <c r="D25">
-        <v>1.072905902257425</v>
+        <v>1.010223302360173</v>
       </c>
       <c r="E25">
-        <v>1.077634576580955</v>
+        <v>0.9971645262526349</v>
       </c>
       <c r="F25">
-        <v>1.081610965348059</v>
+        <v>1.01336775170501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04842596691802</v>
+        <v>1.037526086109564</v>
       </c>
       <c r="J25">
-        <v>1.079215093560477</v>
+        <v>1.013138742550585</v>
       </c>
       <c r="K25">
-        <v>1.075846209370278</v>
+        <v>1.022664960934859</v>
       </c>
       <c r="L25">
-        <v>1.080561186202308</v>
+        <v>1.009807019350975</v>
       </c>
       <c r="M25">
-        <v>1.084526157316374</v>
+        <v>1.025762035182141</v>
       </c>
       <c r="N25">
-        <v>1.080747702781035</v>
+        <v>1.014577515773645</v>
       </c>
     </row>
   </sheetData>
